--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ570.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ570.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91494193-0AB3-4979-8609-1BE9646D4B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308AFA65-D3C6-43ED-ACF8-CD6D11B54518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,10 +465,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A:新增;C:異動;X:補件;D:刪除(僅限補件之資料刪除)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>V</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -522,6 +518,13 @@
   </si>
   <si>
     <t>申請日期</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動
+X:補件
+D:刪除(僅限補件之資料刪除)</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1090,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1138,10 +1141,10 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1221,7 +1224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>1</v>
       </c>
@@ -1239,7 +1242,7 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="13" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1288,7 +1291,7 @@
         <v>103</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>23</v>
@@ -1931,10 +1934,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>116</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>20</v>
@@ -2561,7 +2564,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>106</v>
@@ -2572,7 +2575,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>105</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>108</v>
@@ -2594,32 +2597,32 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
